--- a/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{BEB587C5-4687-B04F-949B-40BB52702584}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\США\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Штаты США&quot;" sheetId="1" r:id="rId1"/>
     <sheet name="&quot;Национальные парки США&quot;" sheetId="2" r:id="rId2"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
   <si>
     <t xml:space="preserve">Год </t>
   </si>
@@ -381,13 +386,22 @@
   </si>
   <si>
     <t>Алабама</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/America_the_Beautiful_quarters</t>
+  </si>
+  <si>
+    <t>Сан-Франциско (S)</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -422,6 +436,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -449,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -639,11 +673,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,15 +793,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,14 +812,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -1154,53 +1219,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.37890625" customWidth="1"/>
-    <col min="2" max="2" width="17.890625" customWidth="1"/>
-    <col min="3" max="4" width="9.4140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7421875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7421875" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34">
         <v>1999</v>
       </c>
@@ -1223,8 +1288,8 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1243,8 +1308,8 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1263,8 +1328,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1283,8 +1348,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35"/>
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1303,7 +1368,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34">
         <v>2000</v>
       </c>
@@ -1325,8 +1390,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1345,8 +1410,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -1365,8 +1430,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1385,8 +1450,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1470,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34">
         <v>2001</v>
       </c>
@@ -1427,8 +1492,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1447,8 +1512,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
       <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1467,8 +1532,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1487,8 +1552,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35"/>
       <c r="B17" s="17" t="s">
         <v>20</v>
       </c>
@@ -1507,8 +1572,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32">
         <v>2002</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -1529,8 +1594,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1549,8 +1614,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1634,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1589,8 +1654,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
       <c r="B22" s="26" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34">
         <v>2003</v>
       </c>
@@ -1631,8 +1696,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
@@ -1651,8 +1716,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
@@ -1671,8 +1736,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
@@ -1691,8 +1756,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="35"/>
       <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
@@ -1711,8 +1776,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="32">
         <v>2004</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -1733,8 +1798,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33"/>
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
@@ -1753,8 +1818,8 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
@@ -1773,8 +1838,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33"/>
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1793,8 +1858,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33"/>
       <c r="B32" s="26" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +1878,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34">
         <v>2005</v>
       </c>
@@ -1835,8 +1900,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="33"/>
       <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
@@ -1855,8 +1920,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
       <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
@@ -1875,8 +1940,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33"/>
       <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
@@ -1895,8 +1960,8 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="35"/>
       <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
@@ -1915,8 +1980,8 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32">
         <v>2006</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -1937,8 +2002,8 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
       <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
@@ -1957,8 +2022,8 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="33"/>
       <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2042,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33"/>
       <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
@@ -1997,8 +2062,8 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33"/>
       <c r="B42" s="26" t="s">
         <v>45</v>
       </c>
@@ -2017,7 +2082,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34">
         <v>2007</v>
       </c>
@@ -2039,8 +2104,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="33"/>
       <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
@@ -2059,8 +2124,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="33"/>
       <c r="B45" s="12" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2144,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="33"/>
       <c r="B46" s="12" t="s">
         <v>49</v>
       </c>
@@ -2099,8 +2164,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="35"/>
       <c r="B47" s="17" t="s">
         <v>50</v>
       </c>
@@ -2119,8 +2184,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="40">
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="32">
         <v>2008</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -2141,8 +2206,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
       <c r="B49" s="12" t="s">
         <v>52</v>
       </c>
@@ -2161,8 +2226,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="33"/>
       <c r="B50" s="12" t="s">
         <v>53</v>
       </c>
@@ -2181,8 +2246,8 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="33"/>
       <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2201,8 +2266,8 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="33"/>
       <c r="B52" s="26" t="s">
         <v>55</v>
       </c>
@@ -2221,7 +2286,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="34">
         <v>2009</v>
       </c>
@@ -2243,8 +2308,8 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="33"/>
       <c r="B54" s="12" t="s">
         <v>57</v>
       </c>
@@ -2263,8 +2328,8 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="33"/>
       <c r="B55" s="12" t="s">
         <v>58</v>
       </c>
@@ -2283,8 +2348,8 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="33"/>
       <c r="B56" s="27" t="s">
         <v>59</v>
       </c>
@@ -2303,8 +2368,8 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="33"/>
       <c r="B57" s="12" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2388,8 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="35"/>
       <c r="B58" s="31" t="s">
         <v>61</v>
       </c>
@@ -2343,950 +2408,957 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A58"/>
@@ -3295,13 +3367,6 @@
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E58">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="!">
@@ -3340,53 +3405,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.45703125" customWidth="1"/>
-    <col min="2" max="2" width="19.37109375" customWidth="1"/>
-    <col min="3" max="4" width="9.4140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7421875" customWidth="1"/>
-    <col min="6" max="6" width="15.73828125" customWidth="1"/>
-    <col min="7" max="26" width="8.7421875" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+    <row r="2" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="34">
         <v>2010</v>
       </c>
@@ -3399,17 +3469,20 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E58" si="0">IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-")),"!!!!!!!!!!",""))</f>
+      <c r="E3" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f t="shared" ref="F3:F58" si="0">IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-")),"!!!!!!!!!!",""))</f>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F54" si="1">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="G3" s="8" t="str">
+        <f t="shared" ref="G3:G54" si="1">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="33"/>
       <c r="B4" s="10" t="s">
         <v>63</v>
       </c>
@@ -3419,17 +3492,20 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="E4" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33"/>
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
@@ -3439,18 +3515,21 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F5" s="8" t="str">
+      <c r="E5" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="33"/>
       <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
@@ -3460,17 +3539,20 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="E6" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="33"/>
       <c r="B7" s="14" t="s">
         <v>66</v>
       </c>
@@ -3480,16 +3562,19 @@
       <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
         <v>2011</v>
       </c>
@@ -3502,17 +3587,20 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="29" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
       <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
@@ -3522,17 +3610,20 @@
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="13" t="str">
+      <c r="E9" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="33"/>
       <c r="B10" s="10" t="s">
         <v>69</v>
       </c>
@@ -3542,17 +3633,20 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="33"/>
       <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
@@ -3562,17 +3656,20 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="35"/>
       <c r="B12" s="19" t="s">
         <v>71</v>
       </c>
@@ -3582,17 +3679,20 @@
       <c r="D12" s="21">
         <v>0</v>
       </c>
-      <c r="E12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
+      <c r="E12" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="32">
         <v>2012</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3604,17 +3704,20 @@
       <c r="D13" s="25">
         <v>0</v>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="29" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="33"/>
       <c r="B14" s="10" t="s">
         <v>73</v>
       </c>
@@ -3624,17 +3727,20 @@
       <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="E14" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="33"/>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
@@ -3644,17 +3750,20 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="E15" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="33"/>
       <c r="B16" s="10" t="s">
         <v>75</v>
       </c>
@@ -3664,17 +3773,20 @@
       <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="8" t="str">
+      <c r="E16" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="33"/>
       <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
@@ -3684,16 +3796,19 @@
       <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="30" t="str">
+      <c r="E17" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="30" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34">
         <v>2013</v>
       </c>
@@ -3706,17 +3821,20 @@
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="33"/>
       <c r="B19" s="10" t="s">
         <v>78</v>
       </c>
@@ -3726,17 +3844,20 @@
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="8" t="str">
+      <c r="E19" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="33"/>
       <c r="B20" s="10" t="s">
         <v>79</v>
       </c>
@@ -3746,17 +3867,20 @@
       <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="E20" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="33"/>
       <c r="B21" s="10" t="s">
         <v>80</v>
       </c>
@@ -3766,17 +3890,20 @@
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="E21" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="35"/>
       <c r="B22" s="19" t="s">
         <v>81</v>
       </c>
@@ -3786,16 +3913,19 @@
       <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F22" s="8" t="str">
+      <c r="E22" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="34">
         <v>2014</v>
       </c>
@@ -3808,17 +3938,20 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="E23" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="33"/>
       <c r="B24" s="10" t="s">
         <v>83</v>
       </c>
@@ -3828,17 +3961,20 @@
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="8" t="str">
+      <c r="E24" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="33"/>
       <c r="B25" s="10" t="s">
         <v>84</v>
       </c>
@@ -3848,17 +3984,20 @@
       <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F25" s="8" t="str">
+      <c r="E25" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="33"/>
       <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
@@ -3868,17 +4007,20 @@
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="E26" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="35"/>
       <c r="B27" s="19" t="s">
         <v>86</v>
       </c>
@@ -3888,17 +4030,20 @@
       <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="E27" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
+      <c r="E27" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="32">
         <v>2015</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3910,17 +4055,20 @@
       <c r="D28" s="25">
         <v>1</v>
       </c>
-      <c r="E28" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F28" s="8" t="str">
+      <c r="E28" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="33"/>
       <c r="B29" s="10" t="s">
         <v>88</v>
       </c>
@@ -3930,17 +4078,20 @@
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="8" t="str">
+      <c r="E29" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="33"/>
       <c r="B30" s="10" t="s">
         <v>89</v>
       </c>
@@ -3950,17 +4101,20 @@
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="8" t="str">
+      <c r="E30" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="33"/>
       <c r="B31" s="10" t="s">
         <v>90</v>
       </c>
@@ -3970,17 +4124,20 @@
       <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="E31" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="33"/>
       <c r="B32" s="14" t="s">
         <v>91</v>
       </c>
@@ -3990,16 +4147,19 @@
       <c r="D32" s="16">
         <v>0</v>
       </c>
-      <c r="E32" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="34">
         <v>2016</v>
       </c>
@@ -4012,17 +4172,20 @@
       <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+      <c r="E33" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="33"/>
       <c r="B34" s="10" t="s">
         <v>93</v>
       </c>
@@ -4032,17 +4195,20 @@
       <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="13" t="str">
+      <c r="E34" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="33"/>
       <c r="B35" s="10" t="s">
         <v>94</v>
       </c>
@@ -4052,17 +4218,20 @@
       <c r="D35" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="8" t="str">
+      <c r="E35" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="33"/>
       <c r="B36" s="10" t="s">
         <v>95</v>
       </c>
@@ -4072,17 +4241,20 @@
       <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="13" t="str">
+      <c r="E36" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="35"/>
       <c r="B37" s="19" t="s">
         <v>96</v>
       </c>
@@ -4092,17 +4264,20 @@
       <c r="D37" s="21">
         <v>0</v>
       </c>
-      <c r="E37" s="18" t="str">
+      <c r="E37" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="18" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40">
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="32">
         <v>2017</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -4114,17 +4289,20 @@
       <c r="D38" s="25">
         <v>0</v>
       </c>
-      <c r="E38" s="29" t="str">
+      <c r="E38" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="29" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+      <c r="G38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="33"/>
       <c r="B39" s="10" t="s">
         <v>98</v>
       </c>
@@ -4134,17 +4312,20 @@
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="13" t="str">
+      <c r="E39" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+      <c r="G39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="33"/>
       <c r="B40" s="10" t="s">
         <v>99</v>
       </c>
@@ -4154,17 +4335,20 @@
       <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="13" t="str">
+      <c r="E40" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="G40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="33"/>
       <c r="B41" s="10" t="s">
         <v>100</v>
       </c>
@@ -4174,17 +4358,20 @@
       <c r="D41" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="13" t="str">
+      <c r="E41" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+      <c r="G41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="33"/>
       <c r="B42" s="14" t="s">
         <v>101</v>
       </c>
@@ -4194,16 +4381,19 @@
       <c r="D42" s="16">
         <v>0</v>
       </c>
-      <c r="E42" s="30" t="str">
+      <c r="E42" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="30" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F42" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="34">
         <v>2018</v>
       </c>
@@ -4216,17 +4406,20 @@
       <c r="D43" s="4">
         <v>0</v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F43" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+      <c r="G43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="33"/>
       <c r="B44" s="10" t="s">
         <v>103</v>
       </c>
@@ -4236,17 +4429,20 @@
       <c r="D44" s="6">
         <v>0</v>
       </c>
-      <c r="E44" s="13" t="str">
+      <c r="E44" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F44" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+      <c r="G44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="33"/>
       <c r="B45" s="10" t="s">
         <v>104</v>
       </c>
@@ -4256,17 +4452,20 @@
       <c r="D45" s="6">
         <v>0</v>
       </c>
-      <c r="E45" s="13" t="str">
+      <c r="E45" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+      <c r="G45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="33"/>
       <c r="B46" s="10" t="s">
         <v>105</v>
       </c>
@@ -4276,17 +4475,20 @@
       <c r="D46" s="6">
         <v>3</v>
       </c>
-      <c r="E46" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F46" s="8" t="str">
+      <c r="E46" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="35"/>
       <c r="B47" s="19" t="s">
         <v>106</v>
       </c>
@@ -4296,17 +4498,20 @@
       <c r="D47" s="21">
         <v>0</v>
       </c>
-      <c r="E47" s="18" t="str">
+      <c r="E47" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="18" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="40">
+      <c r="G47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="32">
         <v>2019</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -4318,17 +4523,20 @@
       <c r="D48" s="25">
         <v>0</v>
       </c>
-      <c r="E48" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F48" s="8" t="str">
+      <c r="E48" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="33"/>
       <c r="B49" s="10" t="s">
         <v>108</v>
       </c>
@@ -4338,60 +4546,69 @@
       <c r="D49" s="6">
         <v>0</v>
       </c>
-      <c r="E49" s="13" t="str">
+      <c r="E49" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F49" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" t="s">
+      <c r="G49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="33"/>
       <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="33"/>
       <c r="B51" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
       </c>
-      <c r="E51" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="33"/>
       <c r="B52" s="14" t="s">
         <v>112</v>
       </c>
@@ -4401,16 +4618,19 @@
       <c r="D52" s="16">
         <v>0</v>
       </c>
-      <c r="E52" s="30" t="str">
+      <c r="E52" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="30" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="34">
         <v>2020</v>
       </c>
@@ -4423,17 +4643,20 @@
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="7" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="G53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="33"/>
       <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
@@ -4443,17 +4666,20 @@
       <c r="D54" s="6">
         <v>0</v>
       </c>
-      <c r="E54" s="13" t="str">
+      <c r="E54" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+      <c r="G54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="33"/>
       <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
@@ -4463,13 +4689,16 @@
       <c r="D55" s="6">
         <v>0</v>
       </c>
-      <c r="E55" s="13" t="str">
+      <c r="E55" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="33"/>
       <c r="B56" s="10" t="s">
         <v>116</v>
       </c>
@@ -4479,13 +4708,16 @@
       <c r="D56" s="6">
         <v>0</v>
       </c>
-      <c r="E56" s="13" t="str">
+      <c r="E56" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="13" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="35"/>
       <c r="B57" s="19" t="s">
         <v>117</v>
       </c>
@@ -4495,12 +4727,15 @@
       <c r="D57" s="21">
         <v>0</v>
       </c>
-      <c r="E57" s="18" t="str">
+      <c r="E57" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="18" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="28">
         <v>2021</v>
       </c>
@@ -4513,959 +4748,961 @@
       <c r="D58" s="25">
         <v>0</v>
       </c>
-      <c r="E58" s="29" t="str">
+      <c r="E58" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="29" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A57"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A47"/>
@@ -5477,28 +5714,29 @@
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E58">
+  <conditionalFormatting sqref="F3:F58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="!">
-      <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("!"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E58">
+  <conditionalFormatting sqref="F3:F58">
     <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(E3))=0</formula>
+      <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E58">
+  <conditionalFormatting sqref="F3:F58">
     <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(E3))&gt;0</formula>
+      <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D58">
+  <conditionalFormatting sqref="C3:E58">
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D58">
+  <conditionalFormatting sqref="C3:E58">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5511,5 +5749,32 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\США\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\США\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -793,18 +793,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -812,18 +816,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1229,44 +1229,44 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>1999</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1288,8 +1288,8 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1308,8 +1308,8 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1328,8 +1328,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1348,8 +1348,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1368,8 +1368,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
         <v>2000</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1390,8 +1390,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1410,8 +1410,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -1430,8 +1430,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1450,8 +1450,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
@@ -1470,8 +1470,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
         <v>2001</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1492,8 +1492,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1512,8 +1512,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1532,8 +1532,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1552,8 +1552,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
       <c r="B17" s="17" t="s">
         <v>20</v>
       </c>
@@ -1572,8 +1572,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
         <v>2002</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -1594,8 +1594,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1614,8 +1614,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1634,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1654,8 +1654,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
       <c r="B22" s="26" t="s">
         <v>25</v>
       </c>
@@ -1674,8 +1674,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
         <v>2003</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1696,8 +1696,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
@@ -1716,8 +1716,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
@@ -1736,8 +1736,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
@@ -1756,8 +1756,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
       <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
@@ -1776,8 +1776,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
         <v>2004</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -1798,8 +1798,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
@@ -1818,8 +1818,8 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
@@ -1838,8 +1838,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1858,8 +1858,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="26" t="s">
         <v>35</v>
       </c>
@@ -1878,8 +1878,8 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
         <v>2005</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1900,8 +1900,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
@@ -1920,8 +1920,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
@@ -1940,8 +1940,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
@@ -1960,8 +1960,8 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
       <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
@@ -1980,8 +1980,8 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
         <v>2006</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2002,8 +2002,8 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2022,8 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
@@ -2042,8 +2042,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
@@ -2062,8 +2062,8 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="26" t="s">
         <v>45</v>
       </c>
@@ -2082,8 +2082,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34">
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
         <v>2007</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2104,8 +2104,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
@@ -2124,8 +2124,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="12" t="s">
         <v>48</v>
       </c>
@@ -2144,8 +2144,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="12" t="s">
         <v>49</v>
       </c>
@@ -2164,8 +2164,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
       <c r="B47" s="17" t="s">
         <v>50</v>
       </c>
@@ -2184,8 +2184,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="32">
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
         <v>2008</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -2206,8 +2206,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
       <c r="B49" s="12" t="s">
         <v>52</v>
       </c>
@@ -2226,8 +2226,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="12" t="s">
         <v>53</v>
       </c>
@@ -2246,8 +2246,8 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="33"/>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2266,8 +2266,8 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="26" t="s">
         <v>55</v>
       </c>
@@ -2286,8 +2286,8 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="34">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37">
         <v>2009</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2308,8 +2308,8 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="33"/>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
         <v>57</v>
       </c>
@@ -2328,8 +2328,8 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="33"/>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="12" t="s">
         <v>58</v>
       </c>
@@ -2348,8 +2348,8 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="33"/>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="27" t="s">
         <v>59</v>
       </c>
@@ -2368,8 +2368,8 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="33"/>
+    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="12" t="s">
         <v>60</v>
       </c>
@@ -2388,8 +2388,8 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="31" t="s">
         <v>61</v>
       </c>
@@ -2408,957 +2408,950 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A58"/>
@@ -3367,6 +3360,13 @@
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A47"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E58">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="!">
@@ -3409,55 +3409,55 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="27" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="34">
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37">
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3469,20 +3469,17 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="7" t="str">
-        <f t="shared" ref="F3:F58" si="0">IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-")),"!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G54" si="1">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="33"/>
+        <f t="shared" ref="G3:G54" si="0">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
       <c r="B4" s="10" t="s">
         <v>63</v>
       </c>
@@ -3492,20 +3489,17 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
@@ -3515,21 +3509,18 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
       <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
@@ -3539,20 +3530,17 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
       <c r="B7" s="14" t="s">
         <v>66</v>
       </c>
@@ -3562,20 +3550,17 @@
       <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
         <v>2011</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3587,20 +3572,17 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
@@ -3610,20 +3592,17 @@
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
       <c r="B10" s="10" t="s">
         <v>69</v>
       </c>
@@ -3633,20 +3612,17 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
       <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
@@ -3656,20 +3632,17 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
       <c r="B12" s="19" t="s">
         <v>71</v>
       </c>
@@ -3679,20 +3652,17 @@
       <c r="D12" s="21">
         <v>0</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
         <v>2012</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3704,20 +3674,17 @@
       <c r="D13" s="25">
         <v>0</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F13" s="29"/>
       <c r="G13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
       <c r="B14" s="10" t="s">
         <v>73</v>
       </c>
@@ -3727,20 +3694,17 @@
       <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
@@ -3750,20 +3714,17 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
       <c r="B16" s="10" t="s">
         <v>75</v>
       </c>
@@ -3773,20 +3734,17 @@
       <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F16" s="13"/>
       <c r="G16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
       <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
@@ -3796,20 +3754,17 @@
       <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F17" s="30"/>
       <c r="G17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="34">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
         <v>2013</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3821,20 +3776,17 @@
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
       <c r="B19" s="10" t="s">
         <v>78</v>
       </c>
@@ -3844,20 +3796,17 @@
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F19" s="13"/>
       <c r="G19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
       <c r="B20" s="10" t="s">
         <v>79</v>
       </c>
@@ -3867,20 +3816,17 @@
       <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
+      <c r="F20" s="13"/>
       <c r="G20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
       <c r="B21" s="10" t="s">
         <v>80</v>
       </c>
@@ -3890,20 +3836,17 @@
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
       <c r="B22" s="19" t="s">
         <v>81</v>
       </c>
@@ -3913,20 +3856,17 @@
       <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="34">
+    <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37">
         <v>2014</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3938,20 +3878,17 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
       <c r="B24" s="10" t="s">
         <v>83</v>
       </c>
@@ -3961,20 +3898,17 @@
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
       <c r="B25" s="10" t="s">
         <v>84</v>
       </c>
@@ -3984,20 +3918,17 @@
       <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
       <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
@@ -4007,20 +3938,17 @@
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F26" s="13"/>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="35"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
       <c r="B27" s="19" t="s">
         <v>86</v>
       </c>
@@ -4030,20 +3958,17 @@
       <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F27" s="18"/>
       <c r="G27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="32">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
         <v>2015</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -4055,20 +3980,17 @@
       <c r="D28" s="25">
         <v>1</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
+      <c r="F28" s="29"/>
       <c r="G28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
       <c r="B29" s="10" t="s">
         <v>88</v>
       </c>
@@ -4078,20 +4000,17 @@
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
       <c r="B30" s="10" t="s">
         <v>89</v>
       </c>
@@ -4101,20 +4020,17 @@
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F30" s="13"/>
       <c r="G30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
       <c r="B31" s="10" t="s">
         <v>90</v>
       </c>
@@ -4124,20 +4040,17 @@
       <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F31" s="13"/>
       <c r="G31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
       <c r="B32" s="14" t="s">
         <v>91</v>
       </c>
@@ -4147,20 +4060,17 @@
       <c r="D32" s="16">
         <v>0</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F32" s="30"/>
       <c r="G32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
         <v>2016</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4172,20 +4082,17 @@
       <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
       <c r="B34" s="10" t="s">
         <v>93</v>
       </c>
@@ -4195,20 +4102,17 @@
       <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
       <c r="B35" s="10" t="s">
         <v>94</v>
       </c>
@@ -4218,20 +4122,17 @@
       <c r="D35" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
       <c r="B36" s="10" t="s">
         <v>95</v>
       </c>
@@ -4241,20 +4142,17 @@
       <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F36" s="13"/>
       <c r="G36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="35"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
       <c r="B37" s="19" t="s">
         <v>96</v>
       </c>
@@ -4264,20 +4162,17 @@
       <c r="D37" s="21">
         <v>0</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F37" s="18"/>
       <c r="G37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="32">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43">
         <v>2017</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -4289,20 +4184,17 @@
       <c r="D38" s="25">
         <v>0</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F38" s="29"/>
       <c r="G38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
       <c r="B39" s="10" t="s">
         <v>98</v>
       </c>
@@ -4312,20 +4204,17 @@
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F39" s="13"/>
       <c r="G39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
       <c r="B40" s="10" t="s">
         <v>99</v>
       </c>
@@ -4335,20 +4224,17 @@
       <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F40" s="13"/>
       <c r="G40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
       <c r="B41" s="10" t="s">
         <v>100</v>
       </c>
@@ -4358,20 +4244,17 @@
       <c r="D41" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F41" s="13"/>
       <c r="G41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
       <c r="B42" s="14" t="s">
         <v>101</v>
       </c>
@@ -4381,20 +4264,17 @@
       <c r="D42" s="16">
         <v>0</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F42" s="30"/>
       <c r="G42" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="34">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37">
         <v>2018</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4406,20 +4286,17 @@
       <c r="D43" s="4">
         <v>0</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
       <c r="B44" s="10" t="s">
         <v>103</v>
       </c>
@@ -4429,20 +4306,17 @@
       <c r="D44" s="6">
         <v>0</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F44" s="13"/>
       <c r="G44" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
       <c r="B45" s="10" t="s">
         <v>104</v>
       </c>
@@ -4452,20 +4326,17 @@
       <c r="D45" s="6">
         <v>0</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F45" s="13"/>
       <c r="G45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
       <c r="B46" s="10" t="s">
         <v>105</v>
       </c>
@@ -4475,20 +4346,17 @@
       <c r="D46" s="6">
         <v>3</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
+      <c r="F46" s="13"/>
       <c r="G46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
       <c r="B47" s="19" t="s">
         <v>106</v>
       </c>
@@ -4498,20 +4366,17 @@
       <c r="D47" s="21">
         <v>0</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F47" s="18"/>
       <c r="G47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="32">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="43">
         <v>2019</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -4523,20 +4388,17 @@
       <c r="D48" s="25">
         <v>0</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F48" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F48" s="29"/>
       <c r="G48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="33"/>
+    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
       <c r="B49" s="10" t="s">
         <v>108</v>
       </c>
@@ -4546,23 +4408,20 @@
       <c r="D49" s="6">
         <v>0</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F49" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F49" s="13"/>
       <c r="G49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
@@ -4572,20 +4431,17 @@
       <c r="D50" s="6">
         <v>1</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
+      <c r="F50" s="13"/>
       <c r="G50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
         <v>111</v>
       </c>
@@ -4593,45 +4449,39 @@
         <v>1</v>
       </c>
       <c r="D51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
-      <c r="F51" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F51" s="13"/>
       <c r="G51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
       <c r="B52" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="16">
-        <v>0</v>
-      </c>
-      <c r="E52" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F52" s="30"/>
       <c r="G52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="34">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="37">
         <v>2020</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4643,20 +4493,17 @@
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
       <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
@@ -4666,20 +4513,17 @@
       <c r="D54" s="6">
         <v>0</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
+      <c r="F54" s="13"/>
       <c r="G54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="33"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
       <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
@@ -4689,16 +4533,13 @@
       <c r="D55" s="6">
         <v>0</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="33"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
       <c r="B56" s="10" t="s">
         <v>116</v>
       </c>
@@ -4708,16 +4549,13 @@
       <c r="D56" s="6">
         <v>0</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="35"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39"/>
       <c r="B57" s="19" t="s">
         <v>117</v>
       </c>
@@ -4727,15 +4565,12 @@
       <c r="D57" s="21">
         <v>0</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F57" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>2021</v>
       </c>
@@ -4748,956 +4583,953 @@
       <c r="D58" s="25">
         <v>0</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F58" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A48:A52"/>
@@ -5761,13 +5593,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>119</v>
       </c>
     </row>

--- a/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\США\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\США\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t xml:space="preserve">Год </t>
   </si>
@@ -394,14 +394,14 @@
     <t>Сан-Франциско (S)</t>
   </si>
   <si>
-    <t>?</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,13 +447,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -698,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -794,21 +787,18 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -816,20 +806,152 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -875,38 +997,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
           <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8E08C"/>
-          <bgColor rgb="FFB8E08C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE5B8B7"/>
-          <bgColor rgb="FFE5B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1223,50 +1313,50 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="35">
         <v>1999</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1279,17 +1369,17 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E58" si="0">IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-")),"!!!!!!!!!!",""))</f>
+        <f>IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-")),"!!!!!!!!!!",""))</f>
         <v>OK</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F58" si="1">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" ref="F3:F58" si="0">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v>Есть на обмен</v>
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="34"/>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1300,16 +1390,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:F58" si="1">IF(OR(AND(C4&gt;0,D4&gt;0),AND(C4&gt;0,D4="-"),AND(D4&gt;0,C4="-")),"OK",IF(OR(AND(C4=0,D4=0),AND(C4=0,D4="-"),AND(D4=0,C4="-")),"!!!!!!!!!!",""))</f>
         <v>OK</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1320,16 +1410,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1340,16 +1430,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36"/>
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1360,16 +1450,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F7" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
         <v>2000</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1382,16 +1472,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F8" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1402,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -1422,16 +1512,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1442,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36"/>
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
@@ -1462,16 +1552,16 @@
         <v>4</v>
       </c>
       <c r="E12" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35">
         <v>2001</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1484,16 +1574,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1504,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
       <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1524,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1544,16 +1634,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36"/>
       <c r="B17" s="17" t="s">
         <v>20</v>
       </c>
@@ -1564,16 +1654,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33">
         <v>2002</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -1586,16 +1676,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1606,16 +1696,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1626,16 +1716,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1646,16 +1736,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
       <c r="B22" s="26" t="s">
         <v>25</v>
       </c>
@@ -1666,16 +1756,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
         <v>2003</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1688,16 +1778,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
@@ -1708,16 +1798,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
@@ -1728,16 +1818,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
@@ -1748,16 +1838,16 @@
         <v>2</v>
       </c>
       <c r="E26" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36"/>
       <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
@@ -1768,16 +1858,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="33">
         <v>2004</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -1790,16 +1880,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
@@ -1810,16 +1900,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
@@ -1830,16 +1920,16 @@
         <v>2</v>
       </c>
       <c r="E30" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1850,16 +1940,16 @@
         <v>1</v>
       </c>
       <c r="E31" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="34"/>
       <c r="B32" s="26" t="s">
         <v>35</v>
       </c>
@@ -1870,16 +1960,16 @@
         <v>1</v>
       </c>
       <c r="E32" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35">
         <v>2005</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1892,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="34"/>
       <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
@@ -1912,16 +2002,16 @@
         <v>1</v>
       </c>
       <c r="E34" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="34"/>
       <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
@@ -1932,16 +2022,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="34"/>
       <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
@@ -1952,16 +2042,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="36"/>
       <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
@@ -1972,16 +2062,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33">
         <v>2006</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -1994,16 +2084,16 @@
         <v>1</v>
       </c>
       <c r="E38" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="34"/>
       <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
@@ -2014,16 +2104,16 @@
         <v>1</v>
       </c>
       <c r="E39" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="34"/>
       <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
@@ -2034,16 +2124,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="34"/>
       <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
@@ -2054,16 +2144,16 @@
         <v>1</v>
       </c>
       <c r="E41" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="34"/>
       <c r="B42" s="26" t="s">
         <v>45</v>
       </c>
@@ -2074,16 +2164,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="35">
         <v>2007</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2096,16 +2186,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
       <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
@@ -2116,16 +2206,16 @@
         <v>2</v>
       </c>
       <c r="E44" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="34"/>
       <c r="B45" s="12" t="s">
         <v>48</v>
       </c>
@@ -2136,16 +2226,16 @@
         <v>2</v>
       </c>
       <c r="E45" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="34"/>
       <c r="B46" s="12" t="s">
         <v>49</v>
       </c>
@@ -2156,16 +2246,16 @@
         <v>1</v>
       </c>
       <c r="E46" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="36"/>
       <c r="B47" s="17" t="s">
         <v>50</v>
       </c>
@@ -2176,16 +2266,16 @@
         <v>1</v>
       </c>
       <c r="E47" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F47" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="33">
         <v>2008</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -2198,16 +2288,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="34"/>
       <c r="B49" s="12" t="s">
         <v>52</v>
       </c>
@@ -2218,16 +2308,16 @@
         <v>2</v>
       </c>
       <c r="E49" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
       <c r="B50" s="12" t="s">
         <v>53</v>
       </c>
@@ -2238,16 +2328,16 @@
         <v>1</v>
       </c>
       <c r="E50" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="34"/>
       <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2258,16 +2348,16 @@
         <v>1</v>
       </c>
       <c r="E51" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="34"/>
       <c r="B52" s="26" t="s">
         <v>55</v>
       </c>
@@ -2278,16 +2368,16 @@
         <v>1</v>
       </c>
       <c r="E52" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="35">
         <v>2009</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2300,16 +2390,16 @@
         <v>1</v>
       </c>
       <c r="E53" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="34"/>
       <c r="B54" s="12" t="s">
         <v>57</v>
       </c>
@@ -2320,16 +2410,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="34"/>
       <c r="B55" s="12" t="s">
         <v>58</v>
       </c>
@@ -2340,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="E55" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F55" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="34"/>
       <c r="B56" s="27" t="s">
         <v>59</v>
       </c>
@@ -2360,16 +2450,16 @@
         <v>1</v>
       </c>
       <c r="E56" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F56" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="34"/>
       <c r="B57" s="12" t="s">
         <v>60</v>
       </c>
@@ -2380,16 +2470,16 @@
         <v>1</v>
       </c>
       <c r="E57" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F57" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="36"/>
       <c r="B58" s="31" t="s">
         <v>61</v>
       </c>
@@ -2400,958 +2490,965 @@
         <v>1</v>
       </c>
       <c r="E58" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="F58" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A58"/>
@@ -3360,31 +3457,24 @@
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E58">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E58">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E58">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D58">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3401,6 +3491,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3409,55 +3500,55 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="44" t="s">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="49" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35">
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3469,17 +3560,20 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="29" t="str">
+        <f>IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-")),"!!!!!!!!!!",""))</f>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G54" si="0">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+        <f t="shared" ref="G3:G58" si="0">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
       <c r="B4" s="10" t="s">
         <v>63</v>
       </c>
@@ -3489,17 +3583,20 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="str">
+        <f t="shared" ref="F4:F12" si="1">IF(OR(AND(C4&gt;0,D4&gt;0),AND(C4&gt;0,D4="-"),AND(D4&gt;0,C4="-")),"OK",IF(OR(AND(C4=0,D4=0),AND(C4=0,D4="-"),AND(D4=0,C4="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
       <c r="G4" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
@@ -3509,18 +3606,21 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="G5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34"/>
       <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
@@ -3530,17 +3630,20 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="G6" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>66</v>
       </c>
@@ -3550,17 +3653,20 @@
       <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="G7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
         <v>2011</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3572,17 +3678,20 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G8" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
       <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
@@ -3592,17 +3701,20 @@
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
       <c r="B10" s="10" t="s">
         <v>69</v>
       </c>
@@ -3612,17 +3724,20 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G10" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
       <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
@@ -3632,17 +3747,20 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="36"/>
       <c r="B12" s="19" t="s">
         <v>71</v>
       </c>
@@ -3652,17 +3770,20 @@
       <c r="D12" s="21">
         <v>0</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33">
         <v>2012</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3674,17 +3795,20 @@
       <c r="D13" s="25">
         <v>0</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="29"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>IF(C13*D13*E13=1,"OK",IF(C13+D13+E13&gt;0,"","!!!!!!!!!!"))</f>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>73</v>
       </c>
@@ -3694,17 +3818,20 @@
       <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="13"/>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29" t="str">
+        <f t="shared" ref="F14:F58" si="2">IF(C14*D14*E14=1,"OK",IF(C14+D14+E14&gt;0,"","!!!!!!!!!!"))</f>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
@@ -3714,17 +3841,20 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="13"/>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>75</v>
       </c>
@@ -3734,17 +3864,20 @@
       <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="13"/>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="34"/>
       <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
@@ -3754,17 +3887,20 @@
       <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="30"/>
+      <c r="E17" s="46">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35">
         <v>2013</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3776,17 +3912,20 @@
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
       <c r="B19" s="10" t="s">
         <v>78</v>
       </c>
@@ -3796,17 +3935,20 @@
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="13"/>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
       <c r="B20" s="10" t="s">
         <v>79</v>
       </c>
@@ -3816,17 +3958,20 @@
       <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="13"/>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
       <c r="B21" s="10" t="s">
         <v>80</v>
       </c>
@@ -3836,17 +3981,20 @@
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="13"/>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
+    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="36"/>
       <c r="B22" s="19" t="s">
         <v>81</v>
       </c>
@@ -3856,17 +4004,20 @@
       <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="18"/>
+      <c r="E22" s="46">
+        <v>0</v>
+      </c>
+      <c r="F22" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
         <v>2014</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3878,17 +4029,20 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
       <c r="B24" s="10" t="s">
         <v>83</v>
       </c>
@@ -3898,17 +4052,20 @@
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="13"/>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
       <c r="B25" s="10" t="s">
         <v>84</v>
       </c>
@@ -3918,17 +4075,20 @@
       <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="13"/>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
       <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
@@ -3938,17 +4098,20 @@
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="13"/>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="36"/>
       <c r="B27" s="19" t="s">
         <v>86</v>
       </c>
@@ -3958,17 +4121,20 @@
       <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="E27" s="46">
+        <v>0</v>
+      </c>
+      <c r="F27" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="33">
         <v>2015</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3980,17 +4146,20 @@
       <c r="D28" s="25">
         <v>1</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="29"/>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>88</v>
       </c>
@@ -4000,17 +4169,20 @@
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="13"/>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
       <c r="B30" s="10" t="s">
         <v>89</v>
       </c>
@@ -4020,17 +4192,20 @@
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="13"/>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
       <c r="B31" s="10" t="s">
         <v>90</v>
       </c>
@@ -4040,17 +4215,20 @@
       <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="13"/>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G31" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>91</v>
       </c>
@@ -4060,17 +4238,20 @@
       <c r="D32" s="16">
         <v>0</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="30"/>
+      <c r="E32" s="46">
+        <v>0</v>
+      </c>
+      <c r="F32" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G32" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35">
         <v>2016</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4082,17 +4263,20 @@
       <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="7"/>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G33" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="34"/>
       <c r="B34" s="10" t="s">
         <v>93</v>
       </c>
@@ -4102,17 +4286,20 @@
       <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="13"/>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="34"/>
       <c r="B35" s="10" t="s">
         <v>94</v>
       </c>
@@ -4122,17 +4309,20 @@
       <c r="D35" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="13"/>
+      <c r="E35" s="25">
+        <v>0</v>
+      </c>
+      <c r="F35" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="34"/>
       <c r="B36" s="10" t="s">
         <v>95</v>
       </c>
@@ -4142,17 +4332,20 @@
       <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="13"/>
+      <c r="E36" s="25">
+        <v>0</v>
+      </c>
+      <c r="F36" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G36" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="36"/>
       <c r="B37" s="19" t="s">
         <v>96</v>
       </c>
@@ -4162,17 +4355,20 @@
       <c r="D37" s="21">
         <v>0</v>
       </c>
-      <c r="E37" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="18"/>
+      <c r="E37" s="46">
+        <v>0</v>
+      </c>
+      <c r="F37" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G37" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33">
         <v>2017</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -4184,17 +4380,20 @@
       <c r="D38" s="25">
         <v>0</v>
       </c>
-      <c r="E38" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="29"/>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="34"/>
       <c r="B39" s="10" t="s">
         <v>98</v>
       </c>
@@ -4204,17 +4403,20 @@
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="13"/>
+      <c r="E39" s="25">
+        <v>0</v>
+      </c>
+      <c r="F39" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G39" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="34"/>
       <c r="B40" s="10" t="s">
         <v>99</v>
       </c>
@@ -4224,17 +4426,20 @@
       <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="13"/>
+      <c r="E40" s="25">
+        <v>0</v>
+      </c>
+      <c r="F40" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="34"/>
       <c r="B41" s="10" t="s">
         <v>100</v>
       </c>
@@ -4244,17 +4449,20 @@
       <c r="D41" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="13"/>
+      <c r="E41" s="25">
+        <v>0</v>
+      </c>
+      <c r="F41" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G41" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="34"/>
       <c r="B42" s="14" t="s">
         <v>101</v>
       </c>
@@ -4264,17 +4472,20 @@
       <c r="D42" s="16">
         <v>0</v>
       </c>
-      <c r="E42" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="30"/>
+      <c r="E42" s="46">
+        <v>0</v>
+      </c>
+      <c r="F42" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G42" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="35">
         <v>2018</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4286,17 +4497,20 @@
       <c r="D43" s="4">
         <v>0</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="7"/>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G43" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
       <c r="B44" s="10" t="s">
         <v>103</v>
       </c>
@@ -4306,17 +4520,20 @@
       <c r="D44" s="6">
         <v>0</v>
       </c>
-      <c r="E44" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="13"/>
+      <c r="E44" s="25">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G44" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="34"/>
       <c r="B45" s="10" t="s">
         <v>104</v>
       </c>
@@ -4326,17 +4543,20 @@
       <c r="D45" s="6">
         <v>0</v>
       </c>
-      <c r="E45" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="13"/>
+      <c r="E45" s="25">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="34"/>
       <c r="B46" s="10" t="s">
         <v>105</v>
       </c>
@@ -4346,17 +4566,20 @@
       <c r="D46" s="6">
         <v>3</v>
       </c>
-      <c r="E46" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="13"/>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+      <c r="F46" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
         <v>106</v>
       </c>
@@ -4366,17 +4589,20 @@
       <c r="D47" s="21">
         <v>0</v>
       </c>
-      <c r="E47" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="18"/>
+      <c r="E47" s="46">
+        <v>0</v>
+      </c>
+      <c r="F47" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="43">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="33">
         <v>2019</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -4388,17 +4614,20 @@
       <c r="D48" s="25">
         <v>0</v>
       </c>
-      <c r="E48" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="29"/>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="34"/>
       <c r="B49" s="10" t="s">
         <v>108</v>
       </c>
@@ -4408,10 +4637,13 @@
       <c r="D49" s="6">
         <v>0</v>
       </c>
-      <c r="E49" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="13"/>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+      <c r="F49" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G49" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4420,8 +4652,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
       <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
@@ -4431,17 +4663,20 @@
       <c r="D50" s="6">
         <v>1</v>
       </c>
-      <c r="E50" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="13"/>
+      <c r="E50" s="25">
+        <v>0</v>
+      </c>
+      <c r="F50" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G50" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="34"/>
       <c r="B51" s="10" t="s">
         <v>111</v>
       </c>
@@ -4454,14 +4689,17 @@
       <c r="E51" s="6">
         <v>1</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="G51" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>112</v>
       </c>
@@ -4471,17 +4709,20 @@
       <c r="D52" s="16">
         <v>1</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="30"/>
+      <c r="E52" s="45">
+        <v>0</v>
+      </c>
+      <c r="F52" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="G52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37">
+    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="35">
         <v>2020</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4493,17 +4734,20 @@
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="7"/>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G53" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="34"/>
       <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
@@ -4513,17 +4757,20 @@
       <c r="D54" s="6">
         <v>0</v>
       </c>
-      <c r="E54" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="13"/>
+      <c r="E54" s="25">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
       <c r="G54" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="34"/>
       <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
@@ -4533,13 +4780,20 @@
       <c r="D55" s="6">
         <v>0</v>
       </c>
-      <c r="E55" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
+      <c r="E55" s="25">
+        <v>0</v>
+      </c>
+      <c r="F55" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="G55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="34"/>
       <c r="B56" s="10" t="s">
         <v>116</v>
       </c>
@@ -4549,13 +4803,20 @@
       <c r="D56" s="6">
         <v>0</v>
       </c>
-      <c r="E56" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
+      <c r="E56" s="25">
+        <v>0</v>
+      </c>
+      <c r="F56" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="G56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="36"/>
       <c r="B57" s="19" t="s">
         <v>117</v>
       </c>
@@ -4565,12 +4826,19 @@
       <c r="D57" s="21">
         <v>0</v>
       </c>
-      <c r="E57" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="46">
+        <v>0</v>
+      </c>
+      <c r="F57" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="28">
         <v>2021</v>
       </c>
@@ -4583,953 +4851,960 @@
       <c r="D58" s="25">
         <v>0</v>
       </c>
-      <c r="E58" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E58" s="25">
+        <v>0</v>
+      </c>
+      <c r="F58" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="G58" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A48:A52"/>
@@ -5549,27 +5824,61 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F58">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F58">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="8">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F58">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="9">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:E58">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="*-">
+  <conditionalFormatting sqref="C3:D12 C13:E58">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:E58">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C3:D12 C13:E58">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E12">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E12">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5590,15 +5899,15 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>119</v>
       </c>

--- a/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 25 центов США из недрагоценных металлов.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\США\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\США\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Штаты США&quot;" sheetId="1" r:id="rId1"/>
@@ -787,112 +787,72 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="10">
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB8E08C"/>
-          <bgColor rgb="FFB8E08C"/>
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE5B8B7"/>
-          <bgColor rgb="FFE5B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8E08C"/>
-          <bgColor rgb="FFB8E08C"/>
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE5B8B7"/>
-          <bgColor rgb="FFE5B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -937,30 +897,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <color rgb="FF000000"/>
@@ -989,14 +925,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF99"/>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1310,53 +1238,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35">
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
         <v>1999</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1378,8 +1306,8 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41"/>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="str">
-        <f t="shared" ref="E3:F58" si="1">IF(OR(AND(C4&gt;0,D4&gt;0),AND(C4&gt;0,D4="-"),AND(D4&gt;0,C4="-")),"OK",IF(OR(AND(C4=0,D4=0),AND(C4=0,D4="-"),AND(D4=0,C4="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" ref="E4:E58" si="1">IF(OR(AND(C4&gt;0,D4&gt;0),AND(C4&gt;0,D4="-"),AND(D4&gt;0,C4="-")),"OK",IF(OR(AND(C4=0,D4=0),AND(C4=0,D4="-"),AND(D4=0,C4="-")),"!!!!!!!!!!",""))</f>
         <v>OK</v>
       </c>
       <c r="F4" s="8" t="str">
@@ -1398,8 +1326,8 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1418,8 +1346,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1438,8 +1366,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1458,8 +1386,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
         <v>2000</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1480,8 +1408,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1500,8 +1428,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -1520,8 +1448,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1540,8 +1468,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
@@ -1560,8 +1488,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
         <v>2001</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1582,8 +1510,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1602,8 +1530,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
       <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1622,8 +1550,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1570,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="17" t="s">
         <v>20</v>
       </c>
@@ -1662,8 +1590,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
         <v>2002</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -1684,8 +1612,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1704,8 +1632,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1724,8 +1652,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1672,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
       <c r="B22" s="26" t="s">
         <v>25</v>
       </c>
@@ -1764,8 +1692,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
         <v>2003</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1786,8 +1714,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
@@ -1806,8 +1734,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
@@ -1826,8 +1754,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
@@ -1846,8 +1774,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
       <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
@@ -1866,8 +1794,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
         <v>2004</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -1888,8 +1816,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
@@ -1908,8 +1836,8 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
@@ -1928,8 +1856,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1948,8 +1876,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
       <c r="B32" s="26" t="s">
         <v>35</v>
       </c>
@@ -1968,8 +1896,8 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
         <v>2005</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1990,8 +1918,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
       <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
@@ -2010,8 +1938,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
       <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
@@ -2030,8 +1958,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
       <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
@@ -2050,8 +1978,8 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
@@ -2070,8 +1998,8 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
         <v>2006</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2092,8 +2020,8 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
       <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
@@ -2112,8 +2040,8 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
       <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
@@ -2132,8 +2060,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
       <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
@@ -2152,8 +2080,8 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
       <c r="B42" s="26" t="s">
         <v>45</v>
       </c>
@@ -2172,8 +2100,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
         <v>2007</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2194,8 +2122,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="34"/>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
       <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
@@ -2214,8 +2142,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
       <c r="B45" s="12" t="s">
         <v>48</v>
       </c>
@@ -2234,8 +2162,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="34"/>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
       <c r="B46" s="12" t="s">
         <v>49</v>
       </c>
@@ -2254,8 +2182,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
       <c r="B47" s="17" t="s">
         <v>50</v>
       </c>
@@ -2274,8 +2202,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46">
         <v>2008</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -2296,8 +2224,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
       <c r="B49" s="12" t="s">
         <v>52</v>
       </c>
@@ -2316,8 +2244,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
       <c r="B50" s="12" t="s">
         <v>53</v>
       </c>
@@ -2336,8 +2264,8 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
       <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
@@ -2356,8 +2284,8 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
       <c r="B52" s="26" t="s">
         <v>55</v>
       </c>
@@ -2376,8 +2304,8 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="35">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
         <v>2009</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2398,8 +2326,8 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
       <c r="B54" s="12" t="s">
         <v>57</v>
       </c>
@@ -2418,8 +2346,8 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
       <c r="B55" s="12" t="s">
         <v>58</v>
       </c>
@@ -2438,8 +2366,8 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
       <c r="B56" s="27" t="s">
         <v>59</v>
       </c>
@@ -2458,8 +2386,8 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
       <c r="B57" s="12" t="s">
         <v>60</v>
       </c>
@@ -2478,8 +2406,8 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="31" t="s">
         <v>61</v>
       </c>
@@ -2498,957 +2426,8 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A58"/>
@@ -3457,24 +2436,31 @@
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A47"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E58">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E58">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E58">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D58">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3497,58 +2483,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="27" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35">
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3572,8 +2558,8 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
       <c r="B4" s="10" t="s">
         <v>63</v>
       </c>
@@ -3595,8 +2581,8 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
@@ -3619,8 +2605,8 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
@@ -3642,8 +2628,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
       <c r="B7" s="14" t="s">
         <v>66</v>
       </c>
@@ -3665,8 +2651,8 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
         <v>2011</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3690,8 +2676,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
@@ -3713,8 +2699,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
       <c r="B10" s="10" t="s">
         <v>69</v>
       </c>
@@ -3736,8 +2722,8 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
       <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
@@ -3759,8 +2745,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
       <c r="B12" s="19" t="s">
         <v>71</v>
       </c>
@@ -3782,8 +2768,8 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
         <v>2012</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3807,8 +2793,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
       <c r="B14" s="10" t="s">
         <v>73</v>
       </c>
@@ -3830,8 +2816,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
@@ -3853,8 +2839,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
       <c r="B16" s="10" t="s">
         <v>75</v>
       </c>
@@ -3876,8 +2862,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
       <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
@@ -3887,10 +2873,10 @@
       <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="46">
-        <v>0</v>
-      </c>
-      <c r="F17" s="47" t="str">
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>!!!!!!!!!!</v>
       </c>
@@ -3899,8 +2885,8 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
         <v>2013</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3924,8 +2910,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
       <c r="B19" s="10" t="s">
         <v>78</v>
       </c>
@@ -3947,8 +2933,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
       <c r="B20" s="10" t="s">
         <v>79</v>
       </c>
@@ -3970,8 +2956,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
       <c r="B21" s="10" t="s">
         <v>80</v>
       </c>
@@ -3993,8 +2979,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
       <c r="B22" s="19" t="s">
         <v>81</v>
       </c>
@@ -4004,10 +2990,10 @@
       <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="46">
-        <v>0</v>
-      </c>
-      <c r="F22" s="47" t="str">
+      <c r="E22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4016,8 +3002,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
         <v>2014</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4041,8 +3027,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
       <c r="B24" s="10" t="s">
         <v>83</v>
       </c>
@@ -4064,8 +3050,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
       <c r="B25" s="10" t="s">
         <v>84</v>
       </c>
@@ -4087,8 +3073,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
       <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
@@ -4110,8 +3096,8 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
       <c r="B27" s="19" t="s">
         <v>86</v>
       </c>
@@ -4121,10 +3107,10 @@
       <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="E27" s="46">
-        <v>0</v>
-      </c>
-      <c r="F27" s="47" t="str">
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4133,8 +3119,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
         <v>2015</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -4158,8 +3144,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
       <c r="B29" s="10" t="s">
         <v>88</v>
       </c>
@@ -4181,8 +3167,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
       <c r="B30" s="10" t="s">
         <v>89</v>
       </c>
@@ -4204,8 +3190,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
       <c r="B31" s="10" t="s">
         <v>90</v>
       </c>
@@ -4227,8 +3213,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
       <c r="B32" s="14" t="s">
         <v>91</v>
       </c>
@@ -4238,10 +3224,10 @@
       <c r="D32" s="16">
         <v>0</v>
       </c>
-      <c r="E32" s="46">
-        <v>0</v>
-      </c>
-      <c r="F32" s="47" t="str">
+      <c r="E32" s="34">
+        <v>0</v>
+      </c>
+      <c r="F32" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4250,8 +3236,8 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
         <v>2016</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4275,8 +3261,8 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
       <c r="B34" s="10" t="s">
         <v>93</v>
       </c>
@@ -4298,8 +3284,8 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
       <c r="B35" s="10" t="s">
         <v>94</v>
       </c>
@@ -4321,8 +3307,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
       <c r="B36" s="10" t="s">
         <v>95</v>
       </c>
@@ -4344,8 +3330,8 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
       <c r="B37" s="19" t="s">
         <v>96</v>
       </c>
@@ -4355,10 +3341,10 @@
       <c r="D37" s="21">
         <v>0</v>
       </c>
-      <c r="E37" s="46">
-        <v>0</v>
-      </c>
-      <c r="F37" s="47" t="str">
+      <c r="E37" s="34">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35" t="str">
         <f t="shared" si="2"/>
         <v>!!!!!!!!!!</v>
       </c>
@@ -4367,8 +3353,8 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
         <v>2017</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -4392,8 +3378,8 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
       <c r="B39" s="10" t="s">
         <v>98</v>
       </c>
@@ -4415,8 +3401,8 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
       <c r="B40" s="10" t="s">
         <v>99</v>
       </c>
@@ -4438,8 +3424,8 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
       <c r="B41" s="10" t="s">
         <v>100</v>
       </c>
@@ -4461,8 +3447,8 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="41"/>
       <c r="B42" s="14" t="s">
         <v>101</v>
       </c>
@@ -4472,10 +3458,10 @@
       <c r="D42" s="16">
         <v>0</v>
       </c>
-      <c r="E42" s="46">
-        <v>0</v>
-      </c>
-      <c r="F42" s="47" t="str">
+      <c r="E42" s="34">
+        <v>0</v>
+      </c>
+      <c r="F42" s="35" t="str">
         <f t="shared" si="2"/>
         <v>!!!!!!!!!!</v>
       </c>
@@ -4484,8 +3470,8 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
         <v>2018</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4509,8 +3495,8 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="34"/>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
       <c r="B44" s="10" t="s">
         <v>103</v>
       </c>
@@ -4532,8 +3518,8 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
       <c r="B45" s="10" t="s">
         <v>104</v>
       </c>
@@ -4555,8 +3541,8 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="34"/>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
       <c r="B46" s="10" t="s">
         <v>105</v>
       </c>
@@ -4578,8 +3564,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42"/>
       <c r="B47" s="19" t="s">
         <v>106</v>
       </c>
@@ -4589,10 +3575,10 @@
       <c r="D47" s="21">
         <v>0</v>
       </c>
-      <c r="E47" s="46">
-        <v>0</v>
-      </c>
-      <c r="F47" s="47" t="str">
+      <c r="E47" s="34">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35" t="str">
         <f t="shared" si="2"/>
         <v>!!!!!!!!!!</v>
       </c>
@@ -4601,8 +3587,8 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46">
         <v>2019</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -4626,8 +3612,8 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
       <c r="B49" s="10" t="s">
         <v>108</v>
       </c>
@@ -4652,8 +3638,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
       <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
@@ -4675,8 +3661,8 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
       <c r="B51" s="10" t="s">
         <v>111</v>
       </c>
@@ -4698,8 +3684,8 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="34"/>
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="41"/>
       <c r="B52" s="14" t="s">
         <v>112</v>
       </c>
@@ -4709,10 +3695,10 @@
       <c r="D52" s="16">
         <v>1</v>
       </c>
-      <c r="E52" s="45">
-        <v>0</v>
-      </c>
-      <c r="F52" s="47" t="str">
+      <c r="E52" s="33">
+        <v>0</v>
+      </c>
+      <c r="F52" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4721,8 +3707,8 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="35">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
         <v>2020</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4746,8 +3732,8 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
       <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
@@ -4769,8 +3755,8 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
       <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
@@ -4792,8 +3778,8 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
       <c r="B56" s="10" t="s">
         <v>116</v>
       </c>
@@ -4815,8 +3801,8 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="42"/>
       <c r="B57" s="19" t="s">
         <v>117</v>
       </c>
@@ -4826,10 +3812,10 @@
       <c r="D57" s="21">
         <v>0</v>
       </c>
-      <c r="E57" s="46">
-        <v>0</v>
-      </c>
-      <c r="F57" s="47" t="str">
+      <c r="E57" s="34">
+        <v>0</v>
+      </c>
+      <c r="F57" s="35" t="str">
         <f t="shared" si="2"/>
         <v>!!!!!!!!!!</v>
       </c>
@@ -4838,7 +3824,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>2021</v>
       </c>
@@ -4863,948 +3849,6 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A48:A52"/>
@@ -5824,22 +3868,22 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F58">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F58">
-    <cfRule type="containsBlanks" dxfId="14" priority="8">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F58">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="9">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D12 C13:E58">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5856,7 +3900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E7">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5873,7 +3917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E12">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5898,16 +3942,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>119</v>
       </c>
